--- a/data/plots.xlsx
+++ b/data/plots.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emarc\AppData\Local\GitHub\EnCours\coco\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4656384-A00F-4633-B035-FF64C157DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDAB3C-8EBD-473C-AABF-A7380D5E255D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="surveyor" sheetId="2" r:id="rId2"/>
     <sheet name="subplots" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId4"/>
-    <sheet name="quadrats" sheetId="3" r:id="rId5"/>
+    <sheet name="quadrats" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>B.1</t>
   </si>
@@ -174,40 +173,7 @@
     <t>down_left</t>
   </si>
   <si>
-    <t>up_left_x</t>
-  </si>
-  <si>
-    <t>up_left_y</t>
-  </si>
-  <si>
-    <t>,,,</t>
-  </si>
-  <si>
-    <t>up_length</t>
-  </si>
-  <si>
-    <t>down_length</t>
-  </si>
-  <si>
-    <t>right_length</t>
-  </si>
-  <si>
-    <t>calculer</t>
-  </si>
-  <si>
-    <t>interpoler</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>surveyor</t>
-  </si>
-  <si>
-    <t>quadrats_points</t>
-  </si>
-  <si>
-    <t>quadrats_field</t>
   </si>
   <si>
     <t>point at the up-left corner of the subplot</t>
@@ -222,7 +188,25 @@
     <t>point at the down-left corner of the subplot</t>
   </si>
   <si>
-    <t>Définition of the quadrats</t>
+    <t>next_right</t>
+  </si>
+  <si>
+    <t>next_up</t>
+  </si>
+  <si>
+    <t>next subplot to the right</t>
+  </si>
+  <si>
+    <t>next subplot to the top</t>
+  </si>
+  <si>
+    <t>quadrats</t>
+  </si>
+  <si>
+    <t>subplots</t>
+  </si>
+  <si>
+    <t>Features of the subplots</t>
   </si>
 </sst>
 </file>
@@ -281,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -295,6 +279,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,8 +373,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DB0934F-A324-4CA3-A4C5-F304CAC7199B}" name="Tableau4" displayName="Tableau4" ref="D7:E12" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="D7:E12" xr:uid="{4DB0934F-A324-4CA3-A4C5-F304CAC7199B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DB0934F-A324-4CA3-A4C5-F304CAC7199B}" name="Tableau4" displayName="Tableau4" ref="D7:E14" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="D7:E14" xr:uid="{4DB0934F-A324-4CA3-A4C5-F304CAC7199B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F467FA4F-A953-401B-BB90-0BF847E3622F}" name="Column" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{5A6E9B6B-C99B-416E-AA91-DB27108C07BD}" name="Content" dataDxfId="12"/>
@@ -421,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE1E0C32-0928-48B3-8959-7C02E17FC643}" name="Tableau49" displayName="Tableau49" ref="D14:E19" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="D14:E19" xr:uid="{DE1E0C32-0928-48B3-8959-7C02E17FC643}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE1E0C32-0928-48B3-8959-7C02E17FC643}" name="Tableau49" displayName="Tableau49" ref="D16:E21" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="D16:E21" xr:uid="{DE1E0C32-0928-48B3-8959-7C02E17FC643}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5F685793-69E3-4FFA-B24D-6A17C5F4EA9C}" name="Column" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{7638DA97-E416-48A6-99D9-6B541D87D043}" name="Content" dataDxfId="7"/>
@@ -432,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{26C3763E-971B-483C-8015-C75C7243CEF9}" name="Tableau610" displayName="Tableau610" ref="A14:B15" totalsRowShown="0">
-  <autoFilter ref="A14:B15" xr:uid="{26C3763E-971B-483C-8015-C75C7243CEF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{26C3763E-971B-483C-8015-C75C7243CEF9}" name="Tableau610" displayName="Tableau610" ref="A16:B17" totalsRowShown="0">
+  <autoFilter ref="A16:B17" xr:uid="{26C3763E-971B-483C-8015-C75C7243CEF9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D08C50B1-1ACC-442F-AB79-D4BF2055ED1A}" name="Sheet"/>
     <tableColumn id="2" xr3:uid="{EA72C4F4-3F33-4761-BA03-467C749F49A1}" name="Content" dataDxfId="6"/>
@@ -456,14 +441,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FB01355-6FE5-4EEA-BACE-F993B5F6712E}" name="Tableau7" displayName="Tableau7" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{3FB01355-6FE5-4EEA-BACE-F993B5F6712E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FB01355-6FE5-4EEA-BACE-F993B5F6712E}" name="Tableau7" displayName="Tableau7" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10" xr:uid="{3FB01355-6FE5-4EEA-BACE-F993B5F6712E}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3C500887-2924-431F-A79C-1196C347B4DE}" name="subplot"/>
     <tableColumn id="2" xr3:uid="{2B6BCE3D-F273-4D52-83C3-5EA8D8A5093C}" name="up_left"/>
     <tableColumn id="3" xr3:uid="{68E60DE2-FC77-4A46-9AF2-ABE3197F2E19}" name="up_right"/>
     <tableColumn id="4" xr3:uid="{87CC494D-5176-48CF-9527-0E01B1F383F5}" name="down_right"/>
     <tableColumn id="5" xr3:uid="{0F5FE0DA-F07D-4814-8317-FBCA47A3711A}" name="down_left"/>
+    <tableColumn id="6" xr3:uid="{0C58B37B-3E68-46AD-883D-41E4D8D922F2}" name="next_right"/>
+    <tableColumn id="7" xr3:uid="{1DFC5226-C0A4-45B1-8E2C-C6AC0D10D46F}" name="next_up"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203FE5FE-F468-494C-8525-DA0649C0A6AB}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -831,7 +818,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -890,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -904,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -912,7 +899,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -920,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -928,66 +915,82 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:5" ht="28.5">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="D16" t="s">
+    <row r="18" spans="1:5">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
+    <row r="19" spans="1:5">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
+    <row r="20" spans="1:5">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1264,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815E3C2-2671-444A-891C-9AA48A9199E9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1275,7 +1278,7 @@
     <col min="4" max="4" width="11.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1291,8 +1294,14 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>13</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>18</v>
       </c>
@@ -1359,8 +1368,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>23</v>
       </c>
@@ -1410,8 +1422,14 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>24</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>25</v>
       </c>
@@ -1454,64 +1472,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B5C1E-DC97-4F34-A22B-D6EBFF530CAB}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA2C0E7-3F97-4951-9A0B-CC6E981EFC7D}">
   <dimension ref="A1:E481"/>
   <sheetViews>

--- a/data/plots.xlsx
+++ b/data/plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emarc\AppData\Local\GitHub\EnCours\coco\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emarc\AppData\Local\GitHub\Enseignement\coco\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDAB3C-8EBD-473C-AABF-A7380D5E255D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42B58C-79E0-46F3-A83D-E8412FDDA219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,7 +279,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +456,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98F10A4B-7E7B-4EED-8336-D2C76C278CA4}" name="Tableau2" displayName="Tableau2" ref="A1:E481" totalsRowShown="0">
-  <autoFilter ref="A1:E481" xr:uid="{98F10A4B-7E7B-4EED-8336-D2C76C278CA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98F10A4B-7E7B-4EED-8336-D2C76C278CA4}" name="Tableau2" displayName="Tableau2" ref="A1:E521" totalsRowShown="0">
+  <autoFilter ref="A1:E521" xr:uid="{98F10A4B-7E7B-4EED-8336-D2C76C278CA4}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="8,3"/>
+        <filter val="8,5"/>
+        <filter val="8,8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6501FF94-DAA0-4EA3-95F3-1F18D388491E}" name="subplot"/>
     <tableColumn id="2" xr3:uid="{4C977D3C-ECBF-4A1F-8F8A-9A29D745A1F5}" name="point_x"/>
@@ -790,7 +797,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -919,18 +926,18 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1270,7 +1277,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1317,6 +1324,9 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -1368,6 +1378,9 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
       <c r="G5">
         <v>13</v>
       </c>
@@ -1444,6 +1457,12 @@
       </c>
       <c r="E9" t="s">
         <v>11</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1473,9 +1492,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA2C0E7-3F97-4951-9A0B-CC6E981EFC7D}">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:E521"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E531" sqref="E531"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -1499,7 +1520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2">
         <v>13</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1567,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1584,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1601,7 +1622,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1635,7 +1656,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1669,7 +1690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1737,7 +1758,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1805,7 +1826,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1822,7 +1843,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1839,7 +1860,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1856,7 +1877,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1873,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1890,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1941,7 +1962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1958,7 +1979,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29">
         <v>13</v>
       </c>
@@ -1975,7 +1996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1992,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31">
         <v>13</v>
       </c>
@@ -2009,7 +2030,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32">
         <v>13</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2043,7 +2064,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2060,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35">
         <v>13</v>
       </c>
@@ -2094,7 +2115,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37">
         <v>13</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38">
         <v>13</v>
       </c>
@@ -2128,7 +2149,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39">
         <v>13</v>
       </c>
@@ -2145,7 +2166,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40">
         <v>13</v>
       </c>
@@ -2162,7 +2183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41">
         <v>13</v>
       </c>
@@ -2179,7 +2200,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42">
         <v>13</v>
       </c>
@@ -2196,7 +2217,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43">
         <v>13</v>
       </c>
@@ -2213,7 +2234,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44">
         <v>13</v>
       </c>
@@ -2230,7 +2251,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2247,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2264,7 +2285,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47">
         <v>13</v>
       </c>
@@ -2281,7 +2302,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48">
         <v>13</v>
       </c>
@@ -2298,7 +2319,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2315,7 +2336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51">
         <v>13</v>
       </c>
@@ -2349,7 +2370,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52">
         <v>13</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53">
         <v>13</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55">
         <v>13</v>
       </c>
@@ -2417,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56">
         <v>13</v>
       </c>
@@ -2434,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57">
         <v>13</v>
       </c>
@@ -2451,7 +2472,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58">
         <v>13</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59">
         <v>13</v>
       </c>
@@ -2485,7 +2506,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60">
         <v>13</v>
       </c>
@@ -2502,7 +2523,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61">
         <v>13</v>
       </c>
@@ -2519,7 +2540,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62">
         <v>13</v>
       </c>
@@ -2536,7 +2557,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63">
         <v>13</v>
       </c>
@@ -2553,7 +2574,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2570,7 +2591,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65">
         <v>13</v>
       </c>
@@ -2587,7 +2608,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66">
         <v>13</v>
       </c>
@@ -2604,7 +2625,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67">
         <v>13</v>
       </c>
@@ -2621,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68">
         <v>13</v>
       </c>
@@ -2638,7 +2659,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2655,7 +2676,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70">
         <v>13</v>
       </c>
@@ -2672,7 +2693,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71">
         <v>13</v>
       </c>
@@ -2689,7 +2710,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72">
         <v>13</v>
       </c>
@@ -2706,7 +2727,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73">
         <v>13</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74">
         <v>13</v>
       </c>
@@ -2740,7 +2761,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75">
         <v>13</v>
       </c>
@@ -2757,7 +2778,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76">
         <v>13</v>
       </c>
@@ -2774,7 +2795,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77">
         <v>13</v>
       </c>
@@ -2791,7 +2812,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78">
         <v>13</v>
       </c>
@@ -2808,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79">
         <v>13</v>
       </c>
@@ -2825,7 +2846,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80">
         <v>13</v>
       </c>
@@ -2842,7 +2863,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81">
         <v>13</v>
       </c>
@@ -2859,7 +2880,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82">
         <v>13</v>
       </c>
@@ -2876,7 +2897,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83">
         <v>13</v>
       </c>
@@ -2893,7 +2914,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84">
         <v>13</v>
       </c>
@@ -2910,7 +2931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85">
         <v>13</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86">
         <v>13</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87">
         <v>13</v>
       </c>
@@ -2961,7 +2982,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2978,7 +2999,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89">
         <v>13</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90">
         <v>13</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91">
         <v>13</v>
       </c>
@@ -3029,7 +3050,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92">
         <v>13</v>
       </c>
@@ -3046,7 +3067,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3063,7 +3084,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3080,7 +3101,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95">
         <v>13</v>
       </c>
@@ -3097,7 +3118,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97">
         <v>13</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98">
         <v>13</v>
       </c>
@@ -3148,7 +3169,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99">
         <v>13</v>
       </c>
@@ -3165,7 +3186,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100">
         <v>13</v>
       </c>
@@ -3182,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101">
         <v>13</v>
       </c>
@@ -3199,7 +3220,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102">
         <v>13</v>
       </c>
@@ -3216,7 +3237,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103">
         <v>13</v>
       </c>
@@ -3233,7 +3254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104">
         <v>13</v>
       </c>
@@ -3250,7 +3271,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105">
         <v>13</v>
       </c>
@@ -3267,7 +3288,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106">
         <v>13</v>
       </c>
@@ -3284,7 +3305,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107">
         <v>13</v>
       </c>
@@ -3301,7 +3322,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108">
         <v>13</v>
       </c>
@@ -3318,7 +3339,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109">
         <v>13</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110">
         <v>13</v>
       </c>
@@ -3352,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111">
         <v>13</v>
       </c>
@@ -3369,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112">
         <v>13</v>
       </c>
@@ -3386,7 +3407,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113">
         <v>13</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114">
         <v>13</v>
       </c>
@@ -3420,7 +3441,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115">
         <v>13</v>
       </c>
@@ -3437,7 +3458,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116">
         <v>13</v>
       </c>
@@ -3454,7 +3475,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117">
         <v>13</v>
       </c>
@@ -3471,7 +3492,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118">
         <v>13</v>
       </c>
@@ -3488,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119">
         <v>13</v>
       </c>
@@ -3505,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120">
         <v>13</v>
       </c>
@@ -3522,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121">
         <v>13</v>
       </c>
@@ -3539,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122">
         <v>18</v>
       </c>
@@ -3556,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123">
         <v>18</v>
       </c>
@@ -3573,7 +3594,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124">
         <v>18</v>
       </c>
@@ -3590,7 +3611,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125">
         <v>18</v>
       </c>
@@ -3607,7 +3628,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126">
         <v>18</v>
       </c>
@@ -3624,7 +3645,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127">
         <v>18</v>
       </c>
@@ -3641,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128">
         <v>18</v>
       </c>
@@ -3658,7 +3679,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129">
         <v>18</v>
       </c>
@@ -3675,7 +3696,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130">
         <v>18</v>
       </c>
@@ -3692,7 +3713,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131">
         <v>18</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132">
         <v>18</v>
       </c>
@@ -3726,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133">
         <v>18</v>
       </c>
@@ -3743,7 +3764,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134">
         <v>18</v>
       </c>
@@ -3760,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135">
         <v>18</v>
       </c>
@@ -3777,7 +3798,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136">
         <v>18</v>
       </c>
@@ -3794,7 +3815,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137">
         <v>18</v>
       </c>
@@ -3811,7 +3832,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138">
         <v>18</v>
       </c>
@@ -3828,7 +3849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139">
         <v>18</v>
       </c>
@@ -3845,7 +3866,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140">
         <v>18</v>
       </c>
@@ -3862,7 +3883,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141">
         <v>18</v>
       </c>
@@ -3879,7 +3900,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142">
         <v>18</v>
       </c>
@@ -3896,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143">
         <v>18</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144">
         <v>18</v>
       </c>
@@ -3930,7 +3951,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145">
         <v>18</v>
       </c>
@@ -3947,7 +3968,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146">
         <v>18</v>
       </c>
@@ -3964,7 +3985,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147">
         <v>18</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148">
         <v>18</v>
       </c>
@@ -3998,7 +4019,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149">
         <v>18</v>
       </c>
@@ -4015,7 +4036,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150">
         <v>18</v>
       </c>
@@ -4032,7 +4053,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151">
         <v>18</v>
       </c>
@@ -4049,7 +4070,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152">
         <v>18</v>
       </c>
@@ -4066,7 +4087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153">
         <v>18</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154">
         <v>18</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155">
         <v>18</v>
       </c>
@@ -4117,7 +4138,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156">
         <v>18</v>
       </c>
@@ -4134,7 +4155,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157">
         <v>18</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158">
         <v>18</v>
       </c>
@@ -4168,7 +4189,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159">
         <v>18</v>
       </c>
@@ -4185,7 +4206,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160">
         <v>18</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161">
         <v>18</v>
       </c>
@@ -4219,7 +4240,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162">
         <v>18</v>
       </c>
@@ -4236,7 +4257,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163">
         <v>18</v>
       </c>
@@ -4253,7 +4274,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164">
         <v>18</v>
       </c>
@@ -4270,7 +4291,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165">
         <v>18</v>
       </c>
@@ -4287,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166">
         <v>18</v>
       </c>
@@ -4304,7 +4325,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167">
         <v>18</v>
       </c>
@@ -4321,7 +4342,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168">
         <v>18</v>
       </c>
@@ -4338,7 +4359,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169">
         <v>18</v>
       </c>
@@ -4355,7 +4376,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170">
         <v>18</v>
       </c>
@@ -4372,7 +4393,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171">
         <v>18</v>
       </c>
@@ -4389,7 +4410,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172">
         <v>18</v>
       </c>
@@ -4406,7 +4427,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173">
         <v>18</v>
       </c>
@@ -4423,7 +4444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174">
         <v>18</v>
       </c>
@@ -4440,7 +4461,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175">
         <v>18</v>
       </c>
@@ -4457,7 +4478,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176">
         <v>18</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177">
         <v>18</v>
       </c>
@@ -4491,7 +4512,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178">
         <v>18</v>
       </c>
@@ -4508,7 +4529,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179">
         <v>18</v>
       </c>
@@ -4525,7 +4546,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180">
         <v>18</v>
       </c>
@@ -4542,7 +4563,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181">
         <v>18</v>
       </c>
@@ -4559,7 +4580,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182">
         <v>18</v>
       </c>
@@ -4576,7 +4597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183">
         <v>18</v>
       </c>
@@ -4593,7 +4614,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184">
         <v>18</v>
       </c>
@@ -4610,7 +4631,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185">
         <v>18</v>
       </c>
@@ -4627,7 +4648,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186">
         <v>18</v>
       </c>
@@ -4644,7 +4665,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187">
         <v>18</v>
       </c>
@@ -4661,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188">
         <v>18</v>
       </c>
@@ -4678,7 +4699,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189">
         <v>18</v>
       </c>
@@ -4695,7 +4716,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190">
         <v>18</v>
       </c>
@@ -4712,7 +4733,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191">
         <v>18</v>
       </c>
@@ -4729,7 +4750,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192">
         <v>18</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193">
         <v>18</v>
       </c>
@@ -4763,7 +4784,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194">
         <v>18</v>
       </c>
@@ -4780,7 +4801,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195">
         <v>18</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196">
         <v>18</v>
       </c>
@@ -4814,7 +4835,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197">
         <v>18</v>
       </c>
@@ -4831,7 +4852,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198">
         <v>18</v>
       </c>
@@ -4848,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199">
         <v>18</v>
       </c>
@@ -4865,7 +4886,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200">
         <v>18</v>
       </c>
@@ -4882,7 +4903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201">
         <v>18</v>
       </c>
@@ -4899,7 +4920,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202">
         <v>18</v>
       </c>
@@ -4916,7 +4937,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203">
         <v>18</v>
       </c>
@@ -4933,7 +4954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204">
         <v>18</v>
       </c>
@@ -4950,7 +4971,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205">
         <v>18</v>
       </c>
@@ -4967,7 +4988,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206">
         <v>18</v>
       </c>
@@ -4984,7 +5005,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207">
         <v>18</v>
       </c>
@@ -5001,7 +5022,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208">
         <v>18</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209">
         <v>18</v>
       </c>
@@ -5035,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210">
         <v>18</v>
       </c>
@@ -5052,7 +5073,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211">
         <v>18</v>
       </c>
@@ -5069,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212">
         <v>18</v>
       </c>
@@ -5086,7 +5107,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213">
         <v>18</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214">
         <v>18</v>
       </c>
@@ -5120,7 +5141,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215">
         <v>18</v>
       </c>
@@ -5137,7 +5158,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216">
         <v>18</v>
       </c>
@@ -5154,7 +5175,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217">
         <v>18</v>
       </c>
@@ -5171,7 +5192,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218">
         <v>18</v>
       </c>
@@ -5188,7 +5209,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219">
         <v>18</v>
       </c>
@@ -5205,7 +5226,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220">
         <v>18</v>
       </c>
@@ -5222,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221">
         <v>18</v>
       </c>
@@ -5239,7 +5260,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222">
         <v>18</v>
       </c>
@@ -5256,7 +5277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223">
         <v>18</v>
       </c>
@@ -5273,7 +5294,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224">
         <v>18</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225">
         <v>18</v>
       </c>
@@ -5307,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226">
         <v>18</v>
       </c>
@@ -5324,7 +5345,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227">
         <v>18</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228">
         <v>18</v>
       </c>
@@ -5358,7 +5379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229">
         <v>18</v>
       </c>
@@ -5375,7 +5396,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230">
         <v>18</v>
       </c>
@@ -5392,7 +5413,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231">
         <v>18</v>
       </c>
@@ -5409,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232">
         <v>18</v>
       </c>
@@ -5426,7 +5447,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233">
         <v>18</v>
       </c>
@@ -5443,7 +5464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234">
         <v>18</v>
       </c>
@@ -5460,7 +5481,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235">
         <v>18</v>
       </c>
@@ -5477,7 +5498,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236">
         <v>18</v>
       </c>
@@ -5494,7 +5515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237">
         <v>18</v>
       </c>
@@ -5511,7 +5532,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238">
         <v>18</v>
       </c>
@@ -5528,7 +5549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239">
         <v>18</v>
       </c>
@@ -5545,7 +5566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240">
         <v>18</v>
       </c>
@@ -5562,7 +5583,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241">
         <v>18</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242">
         <v>23</v>
       </c>
@@ -5596,7 +5617,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243">
         <v>23</v>
       </c>
@@ -5613,7 +5634,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244">
         <v>23</v>
       </c>
@@ -5630,7 +5651,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245">
         <v>23</v>
       </c>
@@ -5647,7 +5668,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246">
         <v>23</v>
       </c>
@@ -5664,7 +5685,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247">
         <v>23</v>
       </c>
@@ -5681,7 +5702,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248">
         <v>23</v>
       </c>
@@ -5698,7 +5719,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249">
         <v>23</v>
       </c>
@@ -5715,7 +5736,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250">
         <v>23</v>
       </c>
@@ -5732,7 +5753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251">
         <v>23</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252">
         <v>23</v>
       </c>
@@ -5766,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253">
         <v>23</v>
       </c>
@@ -5783,7 +5804,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254">
         <v>23</v>
       </c>
@@ -5800,7 +5821,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255">
         <v>23</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256">
         <v>23</v>
       </c>
@@ -5834,7 +5855,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257">
         <v>23</v>
       </c>
@@ -5851,7 +5872,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258">
         <v>23</v>
       </c>
@@ -5868,7 +5889,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259">
         <v>23</v>
       </c>
@@ -5885,7 +5906,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260">
         <v>23</v>
       </c>
@@ -5902,7 +5923,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261">
         <v>23</v>
       </c>
@@ -5919,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262">
         <v>23</v>
       </c>
@@ -5936,7 +5957,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263">
         <v>23</v>
       </c>
@@ -5953,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264">
         <v>23</v>
       </c>
@@ -5970,7 +5991,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265">
         <v>23</v>
       </c>
@@ -5987,7 +6008,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266">
         <v>23</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267">
         <v>23</v>
       </c>
@@ -6021,7 +6042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268">
         <v>23</v>
       </c>
@@ -6038,7 +6059,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269">
         <v>23</v>
       </c>
@@ -6055,7 +6076,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270">
         <v>23</v>
       </c>
@@ -6072,7 +6093,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271">
         <v>23</v>
       </c>
@@ -6089,7 +6110,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272">
         <v>23</v>
       </c>
@@ -6106,7 +6127,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273">
         <v>23</v>
       </c>
@@ -6123,7 +6144,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274">
         <v>23</v>
       </c>
@@ -6140,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275">
         <v>23</v>
       </c>
@@ -6157,7 +6178,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276">
         <v>23</v>
       </c>
@@ -6174,7 +6195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277">
         <v>23</v>
       </c>
@@ -6191,7 +6212,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278">
         <v>23</v>
       </c>
@@ -6208,7 +6229,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279">
         <v>23</v>
       </c>
@@ -6225,7 +6246,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280">
         <v>23</v>
       </c>
@@ -6242,7 +6263,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281">
         <v>23</v>
       </c>
@@ -6259,7 +6280,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282">
         <v>23</v>
       </c>
@@ -6276,7 +6297,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283">
         <v>23</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284">
         <v>23</v>
       </c>
@@ -6310,7 +6331,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285">
         <v>23</v>
       </c>
@@ -6327,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286">
         <v>23</v>
       </c>
@@ -6344,7 +6365,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287">
         <v>23</v>
       </c>
@@ -6361,7 +6382,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288">
         <v>23</v>
       </c>
@@ -6378,7 +6399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289">
         <v>23</v>
       </c>
@@ -6395,7 +6416,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290">
         <v>23</v>
       </c>
@@ -6412,7 +6433,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291">
         <v>23</v>
       </c>
@@ -6429,7 +6450,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292">
         <v>23</v>
       </c>
@@ -6446,7 +6467,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293">
         <v>23</v>
       </c>
@@ -6463,7 +6484,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294">
         <v>23</v>
       </c>
@@ -6480,7 +6501,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295">
         <v>23</v>
       </c>
@@ -6497,7 +6518,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296">
         <v>23</v>
       </c>
@@ -6514,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297">
         <v>23</v>
       </c>
@@ -6531,7 +6552,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298">
         <v>23</v>
       </c>
@@ -6548,7 +6569,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299">
         <v>23</v>
       </c>
@@ -6565,7 +6586,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300">
         <v>23</v>
       </c>
@@ -6582,7 +6603,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301">
         <v>23</v>
       </c>
@@ -6599,7 +6620,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302">
         <v>23</v>
       </c>
@@ -6616,7 +6637,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303">
         <v>23</v>
       </c>
@@ -6633,7 +6654,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304">
         <v>23</v>
       </c>
@@ -6650,7 +6671,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305">
         <v>23</v>
       </c>
@@ -6667,7 +6688,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306">
         <v>23</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307">
         <v>23</v>
       </c>
@@ -6701,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308">
         <v>23</v>
       </c>
@@ -6718,7 +6739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309">
         <v>23</v>
       </c>
@@ -6735,7 +6756,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310">
         <v>23</v>
       </c>
@@ -6752,7 +6773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311">
         <v>23</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312">
         <v>23</v>
       </c>
@@ -6786,7 +6807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313">
         <v>23</v>
       </c>
@@ -6803,7 +6824,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314">
         <v>23</v>
       </c>
@@ -6820,7 +6841,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315">
         <v>23</v>
       </c>
@@ -6837,7 +6858,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316">
         <v>23</v>
       </c>
@@ -6854,7 +6875,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317">
         <v>23</v>
       </c>
@@ -6871,7 +6892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318">
         <v>23</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319">
         <v>23</v>
       </c>
@@ -6905,7 +6926,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320">
         <v>23</v>
       </c>
@@ -6922,7 +6943,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321">
         <v>23</v>
       </c>
@@ -6939,7 +6960,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322">
         <v>23</v>
       </c>
@@ -6956,7 +6977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323">
         <v>23</v>
       </c>
@@ -6973,7 +6994,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324">
         <v>23</v>
       </c>
@@ -6990,7 +7011,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325">
         <v>23</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326">
         <v>23</v>
       </c>
@@ -7024,7 +7045,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327">
         <v>23</v>
       </c>
@@ -7041,7 +7062,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328">
         <v>23</v>
       </c>
@@ -7058,7 +7079,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329">
         <v>23</v>
       </c>
@@ -7075,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330">
         <v>23</v>
       </c>
@@ -7092,7 +7113,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331">
         <v>23</v>
       </c>
@@ -7109,7 +7130,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332">
         <v>23</v>
       </c>
@@ -7126,7 +7147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333">
         <v>23</v>
       </c>
@@ -7143,7 +7164,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334">
         <v>23</v>
       </c>
@@ -7160,7 +7181,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335">
         <v>23</v>
       </c>
@@ -7177,7 +7198,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336">
         <v>23</v>
       </c>
@@ -7194,7 +7215,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337">
         <v>23</v>
       </c>
@@ -7211,7 +7232,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338">
         <v>23</v>
       </c>
@@ -7228,7 +7249,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339">
         <v>23</v>
       </c>
@@ -7245,7 +7266,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340">
         <v>23</v>
       </c>
@@ -7262,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341">
         <v>23</v>
       </c>
@@ -7279,7 +7300,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342">
         <v>23</v>
       </c>
@@ -7296,7 +7317,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343">
         <v>23</v>
       </c>
@@ -7313,7 +7334,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344">
         <v>23</v>
       </c>
@@ -7330,7 +7351,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345">
         <v>23</v>
       </c>
@@ -7347,7 +7368,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346">
         <v>23</v>
       </c>
@@ -7364,7 +7385,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347">
         <v>23</v>
       </c>
@@ -7381,7 +7402,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348">
         <v>23</v>
       </c>
@@ -7398,7 +7419,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349">
         <v>23</v>
       </c>
@@ -7415,7 +7436,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350">
         <v>23</v>
       </c>
@@ -7432,7 +7453,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351">
         <v>23</v>
       </c>
@@ -7449,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352">
         <v>23</v>
       </c>
@@ -7466,7 +7487,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353">
         <v>23</v>
       </c>
@@ -7483,7 +7504,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354">
         <v>23</v>
       </c>
@@ -7500,7 +7521,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355">
         <v>23</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356">
         <v>23</v>
       </c>
@@ -7534,7 +7555,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357">
         <v>23</v>
       </c>
@@ -7551,7 +7572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358">
         <v>23</v>
       </c>
@@ -7568,7 +7589,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359">
         <v>23</v>
       </c>
@@ -7585,7 +7606,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360">
         <v>23</v>
       </c>
@@ -7602,7 +7623,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361">
         <v>23</v>
       </c>
@@ -7619,7 +7640,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362">
         <v>24</v>
       </c>
@@ -7636,7 +7657,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363">
         <v>24</v>
       </c>
@@ -7653,7 +7674,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364">
         <v>24</v>
       </c>
@@ -7670,7 +7691,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365">
         <v>24</v>
       </c>
@@ -7687,7 +7708,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366">
         <v>24</v>
       </c>
@@ -7704,7 +7725,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367">
         <v>24</v>
       </c>
@@ -7721,7 +7742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368">
         <v>24</v>
       </c>
@@ -7738,7 +7759,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369">
         <v>24</v>
       </c>
@@ -7755,7 +7776,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370">
         <v>24</v>
       </c>
@@ -7772,7 +7793,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371">
         <v>24</v>
       </c>
@@ -7789,7 +7810,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372">
         <v>24</v>
       </c>
@@ -7806,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373">
         <v>24</v>
       </c>
@@ -7823,7 +7844,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374">
         <v>24</v>
       </c>
@@ -7840,7 +7861,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375">
         <v>24</v>
       </c>
@@ -7857,7 +7878,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376">
         <v>24</v>
       </c>
@@ -7874,7 +7895,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377">
         <v>24</v>
       </c>
@@ -7891,7 +7912,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378">
         <v>24</v>
       </c>
@@ -7908,7 +7929,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379">
         <v>24</v>
       </c>
@@ -7925,7 +7946,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380">
         <v>24</v>
       </c>
@@ -7942,7 +7963,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381">
         <v>24</v>
       </c>
@@ -7959,7 +7980,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382">
         <v>24</v>
       </c>
@@ -7976,7 +7997,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383">
         <v>24</v>
       </c>
@@ -7993,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384">
         <v>24</v>
       </c>
@@ -8010,7 +8031,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385">
         <v>24</v>
       </c>
@@ -8027,7 +8048,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386">
         <v>24</v>
       </c>
@@ -8044,7 +8065,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387">
         <v>24</v>
       </c>
@@ -8061,7 +8082,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388">
         <v>24</v>
       </c>
@@ -8078,7 +8099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389">
         <v>24</v>
       </c>
@@ -8095,7 +8116,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390">
         <v>24</v>
       </c>
@@ -8112,7 +8133,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391">
         <v>24</v>
       </c>
@@ -8129,7 +8150,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392">
         <v>24</v>
       </c>
@@ -8146,7 +8167,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393">
         <v>24</v>
       </c>
@@ -8163,7 +8184,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394">
         <v>24</v>
       </c>
@@ -8180,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395">
         <v>24</v>
       </c>
@@ -8197,7 +8218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396">
         <v>24</v>
       </c>
@@ -8214,7 +8235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397">
         <v>24</v>
       </c>
@@ -8231,7 +8252,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398">
         <v>24</v>
       </c>
@@ -8248,7 +8269,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399">
         <v>24</v>
       </c>
@@ -8265,7 +8286,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400">
         <v>24</v>
       </c>
@@ -8282,7 +8303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401">
         <v>24</v>
       </c>
@@ -8299,7 +8320,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402">
         <v>24</v>
       </c>
@@ -8316,7 +8337,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403">
         <v>24</v>
       </c>
@@ -8333,7 +8354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404">
         <v>24</v>
       </c>
@@ -8350,7 +8371,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405">
         <v>24</v>
       </c>
@@ -8367,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406">
         <v>24</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407">
         <v>24</v>
       </c>
@@ -8401,7 +8422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408">
         <v>24</v>
       </c>
@@ -8418,7 +8439,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409">
         <v>24</v>
       </c>
@@ -8435,7 +8456,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410">
         <v>24</v>
       </c>
@@ -8452,7 +8473,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411">
         <v>24</v>
       </c>
@@ -8469,7 +8490,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412">
         <v>24</v>
       </c>
@@ -8486,7 +8507,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413">
         <v>24</v>
       </c>
@@ -8503,7 +8524,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414">
         <v>24</v>
       </c>
@@ -8520,7 +8541,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415">
         <v>24</v>
       </c>
@@ -8537,7 +8558,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416">
         <v>24</v>
       </c>
@@ -8554,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417">
         <v>24</v>
       </c>
@@ -8571,7 +8592,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418">
         <v>24</v>
       </c>
@@ -8588,7 +8609,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419">
         <v>24</v>
       </c>
@@ -8605,7 +8626,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420">
         <v>24</v>
       </c>
@@ -8622,7 +8643,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421">
         <v>24</v>
       </c>
@@ -8639,7 +8660,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422">
         <v>24</v>
       </c>
@@ -8656,7 +8677,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423">
         <v>24</v>
       </c>
@@ -8673,7 +8694,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424">
         <v>24</v>
       </c>
@@ -8690,7 +8711,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425">
         <v>24</v>
       </c>
@@ -8707,7 +8728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426">
         <v>24</v>
       </c>
@@ -8724,7 +8745,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427">
         <v>24</v>
       </c>
@@ -8741,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428">
         <v>24</v>
       </c>
@@ -8758,7 +8779,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429">
         <v>24</v>
       </c>
@@ -8775,7 +8796,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430">
         <v>24</v>
       </c>
@@ -8792,7 +8813,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431">
         <v>24</v>
       </c>
@@ -8809,7 +8830,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432">
         <v>24</v>
       </c>
@@ -8826,7 +8847,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433">
         <v>24</v>
       </c>
@@ -8843,7 +8864,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434">
         <v>24</v>
       </c>
@@ -8860,7 +8881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435">
         <v>24</v>
       </c>
@@ -8877,7 +8898,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436">
         <v>24</v>
       </c>
@@ -8894,7 +8915,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437">
         <v>24</v>
       </c>
@@ -8911,7 +8932,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438">
         <v>24</v>
       </c>
@@ -8928,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439">
         <v>24</v>
       </c>
@@ -8945,7 +8966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440">
         <v>24</v>
       </c>
@@ -8962,7 +8983,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441">
         <v>24</v>
       </c>
@@ -8979,7 +9000,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442">
         <v>24</v>
       </c>
@@ -8996,7 +9017,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443">
         <v>24</v>
       </c>
@@ -9013,7 +9034,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444">
         <v>24</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445">
         <v>24</v>
       </c>
@@ -9047,7 +9068,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446">
         <v>24</v>
       </c>
@@ -9064,7 +9085,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447">
         <v>24</v>
       </c>
@@ -9081,7 +9102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448">
         <v>24</v>
       </c>
@@ -9098,7 +9119,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449">
         <v>24</v>
       </c>
@@ -9115,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450">
         <v>24</v>
       </c>
@@ -9132,7 +9153,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451">
         <v>24</v>
       </c>
@@ -9149,7 +9170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452">
         <v>24</v>
       </c>
@@ -9166,7 +9187,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453">
         <v>24</v>
       </c>
@@ -9183,7 +9204,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454">
         <v>24</v>
       </c>
@@ -9200,7 +9221,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455">
         <v>24</v>
       </c>
@@ -9217,7 +9238,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456">
         <v>24</v>
       </c>
@@ -9234,7 +9255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457">
         <v>24</v>
       </c>
@@ -9251,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458">
         <v>24</v>
       </c>
@@ -9268,7 +9289,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459">
         <v>24</v>
       </c>
@@ -9285,7 +9306,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460">
         <v>24</v>
       </c>
@@ -9302,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461">
         <v>24</v>
       </c>
@@ -9319,7 +9340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462">
         <v>24</v>
       </c>
@@ -9336,7 +9357,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463">
         <v>24</v>
       </c>
@@ -9353,7 +9374,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464">
         <v>24</v>
       </c>
@@ -9370,7 +9391,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465">
         <v>24</v>
       </c>
@@ -9387,7 +9408,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466">
         <v>24</v>
       </c>
@@ -9404,7 +9425,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467">
         <v>24</v>
       </c>
@@ -9421,7 +9442,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468">
         <v>24</v>
       </c>
@@ -9438,7 +9459,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469">
         <v>24</v>
       </c>
@@ -9455,7 +9476,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470">
         <v>24</v>
       </c>
@@ -9472,7 +9493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471">
         <v>24</v>
       </c>
@@ -9489,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472">
         <v>24</v>
       </c>
@@ -9506,7 +9527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473">
         <v>24</v>
       </c>
@@ -9523,7 +9544,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474">
         <v>24</v>
       </c>
@@ -9540,7 +9561,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475">
         <v>24</v>
       </c>
@@ -9557,7 +9578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476">
         <v>24</v>
       </c>
@@ -9574,7 +9595,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477">
         <v>24</v>
       </c>
@@ -9591,7 +9612,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478">
         <v>24</v>
       </c>
@@ -9608,7 +9629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479">
         <v>24</v>
       </c>
@@ -9625,7 +9646,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480">
         <v>24</v>
       </c>
@@ -9642,7 +9663,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481">
         <v>24</v>
       </c>
@@ -9656,6 +9677,686 @@
         <v>9.9</v>
       </c>
       <c r="E481" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" hidden="1">
+      <c r="A482">
+        <v>14</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" s="2">
+        <v>0</v>
+      </c>
+      <c r="E482" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" hidden="1">
+      <c r="A483">
+        <v>14</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+      <c r="D483" s="2">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" hidden="1">
+      <c r="A484">
+        <v>14</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484" s="2">
+        <v>0</v>
+      </c>
+      <c r="E484" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" hidden="1">
+      <c r="A485">
+        <v>14</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+      <c r="D485" s="2">
+        <v>0</v>
+      </c>
+      <c r="E485" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" hidden="1">
+      <c r="A486">
+        <v>14</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+      <c r="D486" s="2">
+        <v>0</v>
+      </c>
+      <c r="E486" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" hidden="1">
+      <c r="A487">
+        <v>14</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>6</v>
+      </c>
+      <c r="D487" s="2">
+        <v>0</v>
+      </c>
+      <c r="E487" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" hidden="1">
+      <c r="A488">
+        <v>14</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>7</v>
+      </c>
+      <c r="D488" s="2">
+        <v>0</v>
+      </c>
+      <c r="E488" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" hidden="1">
+      <c r="A489">
+        <v>14</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>8</v>
+      </c>
+      <c r="D489" s="2">
+        <v>0</v>
+      </c>
+      <c r="E489" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" hidden="1">
+      <c r="A490">
+        <v>14</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>9</v>
+      </c>
+      <c r="D490" s="2">
+        <v>0</v>
+      </c>
+      <c r="E490" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" hidden="1">
+      <c r="A491">
+        <v>14</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>10</v>
+      </c>
+      <c r="D491" s="2">
+        <v>0</v>
+      </c>
+      <c r="E491" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" hidden="1">
+      <c r="A492">
+        <v>19</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" s="2">
+        <v>0</v>
+      </c>
+      <c r="E492" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" hidden="1">
+      <c r="A493">
+        <v>19</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493" s="2">
+        <v>0</v>
+      </c>
+      <c r="E493" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" hidden="1">
+      <c r="A494">
+        <v>19</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494" s="2">
+        <v>0</v>
+      </c>
+      <c r="E494" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" hidden="1">
+      <c r="A495">
+        <v>19</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>4</v>
+      </c>
+      <c r="D495" s="2">
+        <v>0</v>
+      </c>
+      <c r="E495" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" hidden="1">
+      <c r="A496">
+        <v>19</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>5</v>
+      </c>
+      <c r="D496" s="2">
+        <v>0</v>
+      </c>
+      <c r="E496" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" hidden="1">
+      <c r="A497">
+        <v>19</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>6</v>
+      </c>
+      <c r="D497" s="2">
+        <v>0</v>
+      </c>
+      <c r="E497" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" hidden="1">
+      <c r="A498">
+        <v>19</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>7</v>
+      </c>
+      <c r="D498" s="2">
+        <v>0</v>
+      </c>
+      <c r="E498" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" hidden="1">
+      <c r="A499">
+        <v>19</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>8</v>
+      </c>
+      <c r="D499" s="2">
+        <v>0</v>
+      </c>
+      <c r="E499" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" hidden="1">
+      <c r="A500">
+        <v>19</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>9</v>
+      </c>
+      <c r="D500" s="2">
+        <v>0</v>
+      </c>
+      <c r="E500" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" hidden="1">
+      <c r="A501">
+        <v>19</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>10</v>
+      </c>
+      <c r="D501" s="2">
+        <v>0</v>
+      </c>
+      <c r="E501" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" hidden="1">
+      <c r="A502">
+        <v>19</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E502" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" hidden="1">
+      <c r="A503">
+        <v>19</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" hidden="1">
+      <c r="A504">
+        <v>19</v>
+      </c>
+      <c r="B504">
+        <v>3</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>10.3</v>
+      </c>
+      <c r="E504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" hidden="1">
+      <c r="A505">
+        <v>19</v>
+      </c>
+      <c r="B505">
+        <v>4</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E505" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" hidden="1">
+      <c r="A506">
+        <v>19</v>
+      </c>
+      <c r="B506">
+        <v>5</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>10</v>
+      </c>
+      <c r="E506" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" hidden="1">
+      <c r="A507">
+        <v>19</v>
+      </c>
+      <c r="B507">
+        <v>6</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E507" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" hidden="1">
+      <c r="A508">
+        <v>19</v>
+      </c>
+      <c r="B508">
+        <v>7</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E508" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" hidden="1">
+      <c r="A509">
+        <v>19</v>
+      </c>
+      <c r="B509">
+        <v>8</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>10</v>
+      </c>
+      <c r="E509" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" hidden="1">
+      <c r="A510">
+        <v>19</v>
+      </c>
+      <c r="B510">
+        <v>9</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E510" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" hidden="1">
+      <c r="A511">
+        <v>19</v>
+      </c>
+      <c r="B511">
+        <v>10</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>9.9</v>
+      </c>
+      <c r="E511" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" hidden="1">
+      <c r="A512">
+        <v>25</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="2">
+        <v>0</v>
+      </c>
+      <c r="E512" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" hidden="1">
+      <c r="A513">
+        <v>25</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513" s="2">
+        <v>0</v>
+      </c>
+      <c r="E513" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" hidden="1">
+      <c r="A514">
+        <v>25</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>3</v>
+      </c>
+      <c r="D514" s="2">
+        <v>0</v>
+      </c>
+      <c r="E514" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" hidden="1">
+      <c r="A515">
+        <v>25</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+      <c r="D515" s="2">
+        <v>0</v>
+      </c>
+      <c r="E515" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" hidden="1">
+      <c r="A516">
+        <v>25</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+      <c r="D516" s="2">
+        <v>0</v>
+      </c>
+      <c r="E516" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" hidden="1">
+      <c r="A517">
+        <v>25</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>6</v>
+      </c>
+      <c r="D517" s="2">
+        <v>0</v>
+      </c>
+      <c r="E517" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" hidden="1">
+      <c r="A518">
+        <v>25</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518" s="2">
+        <v>0</v>
+      </c>
+      <c r="E518" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" hidden="1">
+      <c r="A519">
+        <v>25</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>8</v>
+      </c>
+      <c r="D519" s="2">
+        <v>0</v>
+      </c>
+      <c r="E519" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" hidden="1">
+      <c r="A520">
+        <v>25</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>9</v>
+      </c>
+      <c r="D520" s="2">
+        <v>0</v>
+      </c>
+      <c r="E520" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" hidden="1">
+      <c r="A521">
+        <v>25</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>10</v>
+      </c>
+      <c r="D521" s="2">
+        <v>0</v>
+      </c>
+      <c r="E521" s="2">
         <v>10.3</v>
       </c>
     </row>

--- a/data/plots.xlsx
+++ b/data/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emarc\AppData\Local\GitHub\Enseignement\coco\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC95BB-1FC3-411E-BD3B-56E006F5CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546BDDB-766B-4156-AD8F-B0E3B736C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F432B298-C9D1-4D5B-A48E-4305772A811C}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203FE5FE-F468-494C-8525-DA0649C0A6AB}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815E3C2-2671-444A-891C-9AA48A9199E9}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
